--- a/biology/Botanique/Saccharomycotina/Saccharomycotina.xlsx
+++ b/biology/Botanique/Saccharomycotina/Saccharomycotina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Saccharomycotina[1] sont une sous-division des Ascomycota. Ce groupe ne contient que la seule classe des Saccharomycetes ou levures bourgeonnantes, et le seul ordre des Saccharomycetales.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Saccharomycotina sont une sous-division des Ascomycota. Ce groupe ne contient que la seule classe des Saccharomycetes ou levures bourgeonnantes, et le seul ordre des Saccharomycetales.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Taxons subordonnés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>D'après Myconet (2007)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>D'après Myconet (2007) :
 classe des Saccharomycetes
 ordre des Saccharomycetales
 famille des Ascoideaceae J. Schröter 1894
@@ -537,7 +551,7 @@
 genre Starmera Y. Yamada, Higashi, S. Ando &amp; Mikata
 genre Starmerella Rosa &amp; Lachance
 genre Yamadazyma Billon-Grand
-D'après la 10e édition de Dictionary of the Fungi[3] (2007), l'ordre des Saccharomycetales contient en plus les taxons suivants :
+D'après la 10e édition de Dictionary of the Fungi (2007), l'ordre des Saccharomycetales contient en plus les taxons suivants :
 famille des Phaffomycetaceae
 famille des Debaryomycetaceae
 69 autres genres incertae sedis</t>
